--- a/doctor_insights.xlsx
+++ b/doctor_insights.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>doctor_name</t>
   </si>
@@ -22,13 +22,70 @@
     <t>prescription_count</t>
   </si>
   <si>
-    <t>اء</t>
-  </si>
-  <si>
-    <t>yps</t>
+    <t>هاني سمير أسعد</t>
+  </si>
+  <si>
+    <t>ة</t>
+  </si>
+  <si>
+    <t>رية : ٥٦٧ طريق الحرية جليم ت ٥٧٧٥٢٧٧ - ٠١٠٠٩٥٠٩١٠</t>
+  </si>
+  <si>
+    <t>ات</t>
+  </si>
+  <si>
+    <t>اد شارع جيهان - حى الجامعة</t>
+  </si>
+  <si>
+    <t>الاسم</t>
+  </si>
+  <si>
+    <t>شكرى أمام عصير مكة خلف محطة قطار سيدي جابر</t>
+  </si>
+  <si>
+    <t>د المرات</t>
+  </si>
+  <si>
+    <t>ات النموذجية</t>
+  </si>
+  <si>
+    <t>دكتور</t>
+  </si>
+  <si>
+    <t>Pediatricion</t>
+  </si>
+  <si>
+    <t>evidaXL per</t>
+  </si>
+  <si>
+    <t>che</t>
   </si>
   <si>
     <t>الوجب</t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>Neurology consultant</t>
+  </si>
+  <si>
+    <t>Gamal Mohamed Hassan</t>
+  </si>
+  <si>
+    <t>محمد زكريا القمري</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>أمجد فتحى الشنطى</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>/ طه طعيمه</t>
   </si>
 </sst>
 </file>
@@ -386,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -413,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -421,6 +478,158 @@
         <v>4</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
         <v>1</v>
       </c>
     </row>

--- a/doctor_insights.xlsx
+++ b/doctor_insights.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>doctor_name</t>
   </si>
@@ -25,67 +25,124 @@
     <t>هاني سمير أسعد</t>
   </si>
   <si>
+    <t>ان</t>
+  </si>
+  <si>
     <t>ة</t>
   </si>
   <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>ات</t>
+  </si>
+  <si>
+    <t>Waleed Raafat</t>
+  </si>
+  <si>
+    <t>فاضل أحمد فرج</t>
+  </si>
+  <si>
+    <t>اد شارع جيهان - حى الجامعة</t>
+  </si>
+  <si>
+    <t>م صرف بديل إلا بعد الرجوع للطبيب</t>
+  </si>
+  <si>
+    <t>لية</t>
+  </si>
+  <si>
+    <t>د المرات</t>
+  </si>
+  <si>
+    <t>الاسم</t>
+  </si>
+  <si>
+    <t>شكرى أمام عصير مكة خلف محطة قطار سيدي جابر</t>
+  </si>
+  <si>
+    <t>Ramy Samy Ramzy</t>
+  </si>
+  <si>
+    <t>ري الشمندي</t>
+  </si>
+  <si>
     <t>رية : ٥٦٧ طريق الحرية جليم ت ٥٧٧٥٢٧٧ - ٠١٠٠٩٥٠٩١٠</t>
   </si>
   <si>
-    <t>ات</t>
-  </si>
-  <si>
-    <t>اد شارع جيهان - حى الجامعة</t>
-  </si>
-  <si>
-    <t>الاسم</t>
-  </si>
-  <si>
-    <t>شكرى أمام عصير مكة خلف محطة قطار سيدي جابر</t>
-  </si>
-  <si>
-    <t>د المرات</t>
+    <t>محمد عز الدين</t>
+  </si>
+  <si>
+    <t>مُصْطفى مُحُمَدَ دَاوُدُ</t>
+  </si>
+  <si>
+    <t>اء</t>
+  </si>
+  <si>
+    <t>Hesham Adel</t>
+  </si>
+  <si>
+    <t>وليد على السيد</t>
+  </si>
+  <si>
+    <t>che</t>
+  </si>
+  <si>
+    <t>دكتوراه جراحة العظام</t>
+  </si>
+  <si>
+    <t>دع الغرا</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>Samer Zakaria</t>
+  </si>
+  <si>
+    <t>Hanna . NAROUS</t>
+  </si>
+  <si>
+    <t>نبيل صبحي كامل</t>
+  </si>
+  <si>
+    <t>اد والتمرد</t>
+  </si>
+  <si>
+    <t>evidaXL per</t>
+  </si>
+  <si>
+    <t>Mohamed Abdel Ghaffar</t>
+  </si>
+  <si>
+    <t>/ طه طعيمه</t>
+  </si>
+  <si>
+    <t>دكتور</t>
+  </si>
+  <si>
+    <t>مجدى مسعد</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>أمجد فتحى الشنطى</t>
+  </si>
+  <si>
+    <t>مرداش</t>
+  </si>
+  <si>
+    <t>Gamal Mohamed Hassan</t>
   </si>
   <si>
     <t>ات النموذجية</t>
   </si>
   <si>
-    <t>دكتور</t>
-  </si>
-  <si>
-    <t>Pediatricion</t>
-  </si>
-  <si>
-    <t>evidaXL per</t>
-  </si>
-  <si>
-    <t>che</t>
+    <t>محمد زكريا القمري</t>
   </si>
   <si>
     <t>الوجب</t>
-  </si>
-  <si>
-    <t>Dr</t>
-  </si>
-  <si>
-    <t>Neurology consultant</t>
-  </si>
-  <si>
-    <t>Gamal Mohamed Hassan</t>
-  </si>
-  <si>
-    <t>محمد زكريا القمري</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>أمجد فتحى الشنطى</t>
-  </si>
-  <si>
-    <t>ug</t>
-  </si>
-  <si>
-    <t>/ طه طعيمه</t>
   </si>
 </sst>
 </file>
@@ -443,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -470,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -478,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -486,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -542,7 +599,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -550,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -558,7 +615,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -566,7 +623,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -574,7 +631,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -582,7 +639,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -630,6 +687,158 @@
         <v>23</v>
       </c>
       <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
         <v>1</v>
       </c>
     </row>
